--- a/biology/Écologie/Toundra_côtière_de_l'île_de_Baffin/Toundra_côtière_de_l'île_de_Baffin.xlsx
+++ b/biology/Écologie/Toundra_côtière_de_l'île_de_Baffin/Toundra_côtière_de_l'île_de_Baffin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Toundra_c%C3%B4ti%C3%A8re_de_l%27%C3%AEle_de_Baffin</t>
+          <t>Toundra_côtière_de_l'île_de_Baffin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La toundra côtière de l'île de Baffin (Baffin coastal tundra) est une écorégion terrestre nord-américaine du type toundra du World Wildlife Fund[1]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La toundra côtière de l'île de Baffin (Baffin coastal tundra) est une écorégion terrestre nord-américaine du type toundra du World Wildlife Fund
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Toundra_c%C3%B4ti%C3%A8re_de_l%27%C3%AEle_de_Baffin</t>
+          <t>Toundra_côtière_de_l'île_de_Baffin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La toundra côtière de l'île de Baffin est une petite écorégion localisée le long des côtes du centre-nord de l'île de Baffin.  
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Toundra_c%C3%B4ti%C3%A8re_de_l%27%C3%AEle_de_Baffin</t>
+          <t>Toundra_côtière_de_l'île_de_Baffin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Climat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La température annuelle moyenne est de -22,5⁰C.  La température estivale moyenne est de 1⁰C et la température hivernale moyenne est de -22,5⁰C.  Les précipitations annuelles oscillent entre 200 et 300mm.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Toundra_c%C3%B4ti%C3%A8re_de_l%27%C3%AEle_de_Baffin</t>
+          <t>Toundra_côtière_de_l'île_de_Baffin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Caractéristiques biologiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La végétation éparse et basse se compose de mousses, de saxifrage à feuilles opposées, de dryas, de saule arctique, de kobresia, de carex et de pavot arctique.  Les sites plus humides sont colonisés entre autres par le luzula, le juncus et la mousse.   
 </t>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Toundra_c%C3%B4ti%C3%A8re_de_l%27%C3%AEle_de_Baffin</t>
+          <t>Toundra_côtière_de_l'île_de_Baffin</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,7 +622,9 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette écorégion est intacte[réf. souhaitée]. 
 </t>
